--- a/NumStrm/hausaufgabe/data.xlsx
+++ b/NumStrm/hausaufgabe/data.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roland\Documents\Visual Studio 2015\Projects\university-numerical\NumStrm\hausaufgabe\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="993" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -56,49 +60,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,7 +79,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -118,45 +87,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -215,15 +156,33 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -232,26 +191,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -265,6 +224,7 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -272,12 +232,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="19080">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -287,18 +244,31 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -364,58 +334,71 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.0205465</c:v>
+                  <c:v>2.0546499999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0197481</c:v>
+                  <c:v>1.9748100000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01900052</c:v>
+                  <c:v>1.900052E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0183128</c:v>
+                  <c:v>1.8312800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0176664</c:v>
+                  <c:v>1.7666399999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.017062</c:v>
+                  <c:v>1.7062000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0164958</c:v>
+                  <c:v>1.6495800000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0159647</c:v>
+                  <c:v>1.5964699999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0154656</c:v>
+                  <c:v>1.5465599999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0149957</c:v>
+                  <c:v>1.4995700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0145529</c:v>
+                  <c:v>1.4552900000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.0141347</c:v>
+                  <c:v>1.41347E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0137394</c:v>
+                  <c:v>1.3739400000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0133652</c:v>
+                  <c:v>1.3365200000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0130104</c:v>
+                  <c:v>1.30104E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0126736</c:v>
+                  <c:v>1.26736E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53FC-4E01-88D1-CAE542558E85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="68667567"/>
         <c:axId val="1528666"/>
       </c:scatterChart>
@@ -430,7 +413,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -443,27 +426,29 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1528666"/>
@@ -481,7 +466,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -494,27 +479,29 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="bfbfbf"/>
+              <a:srgbClr val="BFBFBF"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="68667567"/>
@@ -530,25 +517,33 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -557,26 +552,26 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:rPr lang="de-DE" sz="1400" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
@@ -590,18 +585,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="5b9bd5"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="5b9bd5"/>
+                <a:srgbClr val="5B9BD5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -610,18 +604,32 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$G$4:$G$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
@@ -674,8 +682,8 @@
                 <c:pt idx="16">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -684,71 +692,73 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0205467</c:v>
+                  <c:v>2.0546700000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0170622</c:v>
+                  <c:v>1.70622E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0145535</c:v>
+                  <c:v>1.45535E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.012674</c:v>
+                  <c:v>1.2674E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.01123</c:v>
+                  <c:v>1.123E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0100597</c:v>
+                  <c:v>1.00597E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.009117</c:v>
+                  <c:v>9.1170000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.008334</c:v>
+                  <c:v>8.3339999999999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.007674</c:v>
+                  <c:v>7.6740000000000003E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00711</c:v>
+                  <c:v>7.11E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0066225</c:v>
+                  <c:v>6.6224999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00620016</c:v>
+                  <c:v>6.2001599999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.0058568</c:v>
+                  <c:v>5.8567999999999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.0054957</c:v>
+                  <c:v>5.4957000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00520024</c:v>
+                  <c:v>5.2002400000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00495</c:v>
+                  <c:v>4.9500000000000004E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.0047</c:v>
+                  <c:v>4.7000000000000002E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C0F-4968-83B5-66A83D7B8947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="ed7d31"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -757,18 +767,32 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Tabelle1!$G$4:$G$20</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>20</c:v>
@@ -821,8 +845,8 @@
                 <c:pt idx="16">
                   <c:v>100</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -831,61 +855,74 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0.0266534667873797</c:v>
+                  <c:v>2.665346678737969E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0203466347749911</c:v>
+                  <c:v>2.0346634774991067E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0163186144522217</c:v>
+                  <c:v>1.6318614452221651E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0135418396300379</c:v>
+                  <c:v>1.3541839630037937E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0115214571905587</c:v>
+                  <c:v>1.1521457190558691E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.00999108970568692</c:v>
+                  <c:v>9.9910897056869202E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.00879521164740155</c:v>
+                  <c:v>8.7952116474015532E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.00783720389615815</c:v>
+                  <c:v>7.8372038961581451E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.00705402487865211</c:v>
+                  <c:v>7.0540248786521145E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.00640287227340878</c:v>
+                  <c:v>6.4028722734087813E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.00585371227028406</c:v>
+                  <c:v>5.8537122702840595E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.00538487803648845</c:v>
+                  <c:v>5.3848780364884495E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.00498036435007885</c:v>
+                  <c:v>4.9803643500788549E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.00462810389651468</c:v>
+                  <c:v>4.6281038965146747E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.00431883451595154</c:v>
+                  <c:v>4.3188345159515442E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.00404533449340307</c:v>
+                  <c:v>4.0453344934030678E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.00380189396320561</c:v>
+                  <c:v>3.8018939632056123E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C0F-4968-83B5-66A83D7B8947}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:hiLowLines>
           <c:spPr>
             <a:ln>
@@ -893,7 +930,7 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
-        <c:marker val="0"/>
+        <c:smooth val="0"/>
         <c:axId val="83496819"/>
         <c:axId val="89145163"/>
       </c:lineChart>
@@ -911,27 +948,29 @@
         <c:spPr>
           <a:ln w="9360">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:srgbClr val="D9D9D9"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="89145163"/>
@@ -939,6 +978,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="89145163"/>
@@ -951,7 +991,7 @@
           <c:spPr>
             <a:ln w="9360">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:srgbClr val="D9D9D9"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -968,20 +1008,22 @@
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="83496819"/>
@@ -1007,37 +1049,44 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln w="9360">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:srgbClr val="D9D9D9"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="line"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
             <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="004586"/>
@@ -1049,12 +1098,25 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:xVal>
             <c:numRef>
@@ -1069,10 +1131,10 @@
                   <c:v>1.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.15</c:v>
+                  <c:v>1.1499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.2</c:v>
@@ -1111,14 +1173,14 @@
                   <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.435</c:v>
+                  <c:v>1.4350000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet2!$B$3:$B$19</c:f>
+              <c:f>Sheet2!$C$3:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
@@ -1177,7 +1239,20 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8262-430C-8F5B-F4BE81C72521}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="48513834"/>
         <c:axId val="10041957"/>
       </c:scatterChart>
@@ -1195,26 +1270,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="10041957"/>
@@ -1232,7 +1309,7 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
+                <a:srgbClr val="B3B3B3"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -1244,26 +1321,28 @@
         <c:spPr>
           <a:ln>
             <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
+              <a:srgbClr val="B3B3B3"/>
             </a:solidFill>
           </a:ln>
         </c:spPr>
         <c:txPr>
           <a:bodyPr/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:defRPr sz="1000" b="0" strike="noStrike" spc="-1">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:uFill>
                   <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
+                    <a:srgbClr val="FFFFFF"/>
                   </a:solidFill>
                 </a:uFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="48513834"/>
@@ -1274,7 +1353,7 @@
         <a:noFill/>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
+            <a:srgbClr val="B3B3B3"/>
           </a:solidFill>
         </a:ln>
       </c:spPr>
@@ -1291,20 +1370,966 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="span"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:srgbClr val="FFFFFF"/>
     </a:solidFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.415</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4175</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.425</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4350000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1449</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1191</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1079</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>976</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>881</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>638</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>616</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>613</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2177</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C9FC-4565-B649-C23852364395}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="549408536"/>
+        <c:axId val="549408864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="549408536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549408864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="549408864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549408536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1318,14 +2343,14 @@
       <xdr:row>33</xdr:row>
       <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Diagramm 1"/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="217440" y="3943800"/>
-        <a:ext cx="3790440" cy="2476080"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1348,14 +2373,14 @@
       <xdr:row>17</xdr:row>
       <xdr:rowOff>152640</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Diagramm 3"/>
+        <xdr:cNvPr id="3" name="Diagramm 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8323200" y="648000"/>
-        <a:ext cx="4457160" cy="2742840"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1369,28 +2394,28 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>40320</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>383220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>331200</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>26175</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1665720" y="363240"/>
-        <a:ext cx="8418960" cy="7640280"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1400,1066 +2425,1441 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O38" activeCellId="0" sqref="O38"/>
+    <sheetView topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.530612244898"/>
+    <col min="1" max="2" width="10.5703125"/>
+    <col min="3" max="3" width="11.7109375"/>
+    <col min="4" max="1025" width="10.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <f aca="false">0.0002</f>
-        <v>0.0002</v>
-      </c>
-      <c r="G1" s="0" t="s">
+      <c r="B1">
+        <f>0.0002</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="0" t="n">
-        <f aca="false">2*10^-5</f>
-        <v>2E-005</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="H1">
+        <f>2*10^-5</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>20</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0.0205465</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">B4/(A4^2)</f>
-        <v>5.136625E-005</v>
-      </c>
-      <c r="G4" s="0" t="n">
+      <c r="B4">
+        <v>2.0546499999999999E-2</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C19" si="0">B4/(A4^2)</f>
+        <v>5.136625E-5</v>
+      </c>
+      <c r="G4">
         <v>20</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>0.0205467</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <f aca="false">1*G4^(-1.21)</f>
-        <v>0.0266534667873797</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="H4">
+        <v>2.0546700000000001E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I20" si="1">1*G4^(-1.21)</f>
+        <v>2.665346678737969E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>21</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0.0197481</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">B5/(A5^2)</f>
-        <v>4.47802721088435E-005</v>
-      </c>
-      <c r="G5" s="0" t="n">
+      <c r="B5">
+        <v>1.9748100000000001E-2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.4780272108843543E-5</v>
+      </c>
+      <c r="G5">
         <v>25</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>0.0170622</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <f aca="false">1*G5^(-1.21)</f>
-        <v>0.0203466347749911</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="H5">
+        <v>1.70622E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>2.0346634774991067E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>22</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0.01900052</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">B6/(A6^2)</f>
-        <v>3.92572727272727E-005</v>
-      </c>
-      <c r="G6" s="0" t="n">
+      <c r="B6">
+        <v>1.900052E-2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3.9257272727272725E-5</v>
+      </c>
+      <c r="G6">
         <v>30</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>0.0145535</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <f aca="false">1*G6^(-1.21)</f>
-        <v>0.0163186144522217</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="H6">
+        <v>1.45535E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>1.6318614452221651E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0.0183128</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">B7/(A7^2)</f>
-        <v>3.46177693761815E-005</v>
-      </c>
-      <c r="G7" s="0" t="n">
+      <c r="B7">
+        <v>1.8312800000000001E-2</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3.4617769376181475E-5</v>
+      </c>
+      <c r="G7">
         <v>35</v>
       </c>
-      <c r="H7" s="0" t="n">
-        <v>0.012674</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <f aca="false">1*G7^(-1.21)</f>
-        <v>0.0135418396300379</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="H7">
+        <v>1.2674E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.3541839630037937E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>24</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0.0176664</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">B8/(A8^2)</f>
-        <v>3.06708333333333E-005</v>
-      </c>
-      <c r="G8" s="0" t="n">
+      <c r="B8">
+        <v>1.7666399999999999E-2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.0670833333333331E-5</v>
+      </c>
+      <c r="G8">
         <v>40</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>0.01123</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <f aca="false">1*G8^(-1.21)</f>
-        <v>0.0115214571905587</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="H8">
+        <v>1.123E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>1.1521457190558691E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0.017062</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">B9/(A9^2)</f>
-        <v>2.72992E-005</v>
-      </c>
-      <c r="G9" s="0" t="n">
+      <c r="B9">
+        <v>1.7062000000000001E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2.7299200000000001E-5</v>
+      </c>
+      <c r="G9">
         <v>45</v>
       </c>
-      <c r="H9" s="0" t="n">
-        <v>0.0100597</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <f aca="false">1*G9^(-1.21)</f>
-        <v>0.00999108970568692</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="H9">
+        <v>1.00597E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>9.9910897056869202E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>26</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>0.0164958</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">B10/(A10^2)</f>
-        <v>2.44020710059172E-005</v>
-      </c>
-      <c r="G10" s="0" t="n">
+      <c r="B10">
+        <v>1.6495800000000001E-2</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2.4402071005917161E-5</v>
+      </c>
+      <c r="G10">
         <v>50</v>
       </c>
-      <c r="H10" s="0" t="n">
-        <v>0.009117</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <f aca="false">1*G10^(-1.21)</f>
-        <v>0.00879521164740155</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="H10">
+        <v>9.1170000000000001E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>8.7952116474015532E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>27</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>0.0159647</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">B11/(A11^2)</f>
-        <v>2.1899451303155E-005</v>
-      </c>
-      <c r="G11" s="0" t="n">
+      <c r="B11">
+        <v>1.5964699999999998E-2</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.1899451303155005E-5</v>
+      </c>
+      <c r="G11">
         <v>55</v>
       </c>
-      <c r="H11" s="0" t="n">
-        <v>0.008334</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <f aca="false">1*G11^(-1.21)</f>
-        <v>0.00783720389615815</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="H11">
+        <v>8.3339999999999994E-3</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>7.8372038961581451E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>28</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>0.0154656</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">B12/(A12^2)</f>
-        <v>1.97265306122449E-005</v>
-      </c>
-      <c r="G12" s="0" t="n">
+      <c r="B12">
+        <v>1.5465599999999999E-2</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>1.9726530612244898E-5</v>
+      </c>
+      <c r="G12">
         <v>60</v>
       </c>
-      <c r="H12" s="0" t="n">
-        <v>0.007674</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <f aca="false">1*G12^(-1.21)</f>
-        <v>0.00705402487865211</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="H12">
+        <v>7.6740000000000003E-3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>7.0540248786521145E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>29</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0.0149957</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">B13/(A13^2)</f>
-        <v>1.78307966706302E-005</v>
-      </c>
-      <c r="G13" s="0" t="n">
+      <c r="B13">
+        <v>1.4995700000000001E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.7830796670630202E-5</v>
+      </c>
+      <c r="G13">
         <v>65</v>
       </c>
-      <c r="H13" s="0" t="n">
-        <v>0.00711</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <f aca="false">1*G13^(-1.21)</f>
-        <v>0.00640287227340878</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="H13">
+        <v>7.11E-3</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>6.4028722734087813E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>30</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0.0145529</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">B14/(A14^2)</f>
-        <v>1.61698888888889E-005</v>
-      </c>
-      <c r="G14" s="0" t="n">
+      <c r="B14">
+        <v>1.4552900000000001E-2</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>1.616988888888889E-5</v>
+      </c>
+      <c r="G14">
         <v>70</v>
       </c>
-      <c r="H14" s="0" t="n">
-        <v>0.0066225</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <f aca="false">1*G14^(-1.21)</f>
-        <v>0.00585371227028406</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+      <c r="H14">
+        <v>6.6224999999999999E-3</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>5.8537122702840595E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>31</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0.0141347</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">B15/(A15^2)</f>
-        <v>1.47083246618106E-005</v>
-      </c>
-      <c r="G15" s="0" t="n">
+      <c r="B15">
+        <v>1.41347E-2</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>1.4708324661810615E-5</v>
+      </c>
+      <c r="G15">
         <v>75</v>
       </c>
-      <c r="H15" s="0" t="n">
-        <v>0.00620016</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <f aca="false">1*G15^(-1.21)</f>
-        <v>0.00538487803648845</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+      <c r="H15">
+        <v>6.2001599999999997E-3</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>5.3848780364884495E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>32</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0.0137394</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">B16/(A16^2)</f>
-        <v>1.34173828125E-005</v>
-      </c>
-      <c r="G16" s="0" t="n">
+      <c r="B16">
+        <v>1.3739400000000001E-2</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>1.3417382812500001E-5</v>
+      </c>
+      <c r="G16">
         <v>80</v>
       </c>
-      <c r="H16" s="0" t="n">
-        <v>0.0058568</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <f aca="false">1*G16^(-1.21)</f>
-        <v>0.00498036435007885</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+      <c r="H16">
+        <v>5.8567999999999997E-3</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>4.9803643500788549E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>33</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0.0133652</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">B17/(A17^2)</f>
-        <v>1.22729109274564E-005</v>
-      </c>
-      <c r="G17" s="0" t="n">
+      <c r="B17">
+        <v>1.3365200000000001E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.2272910927456382E-5</v>
+      </c>
+      <c r="G17">
         <v>85</v>
       </c>
-      <c r="H17" s="0" t="n">
-        <v>0.0054957</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <f aca="false">1*G17^(-1.21)</f>
-        <v>0.00462810389651468</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+      <c r="H17">
+        <v>5.4957000000000001E-3</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>4.6281038965146747E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>34</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0.0130104</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">B18/(A18^2)</f>
-        <v>1.12546712802768E-005</v>
-      </c>
-      <c r="G18" s="0" t="n">
+      <c r="B18">
+        <v>1.30104E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>1.1254671280276817E-5</v>
+      </c>
+      <c r="G18">
         <v>90</v>
       </c>
-      <c r="H18" s="0" t="n">
-        <v>0.00520024</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <f aca="false">1*G18^(-1.21)</f>
-        <v>0.00431883451595154</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+      <c r="H18">
+        <v>5.2002400000000001E-3</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>4.3188345159515442E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>35</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0.0126736</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <f aca="false">B19/(A19^2)</f>
-        <v>1.03457959183673E-005</v>
-      </c>
-      <c r="G19" s="0" t="n">
+      <c r="B19">
+        <v>1.26736E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>1.0345795918367346E-5</v>
+      </c>
+      <c r="G19">
         <v>95</v>
       </c>
-      <c r="H19" s="0" t="n">
-        <v>0.00495</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <f aca="false">1*G19^(-1.21)</f>
-        <v>0.00404533449340307</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G20" s="0" t="n">
+      <c r="H19">
+        <v>4.9500000000000004E-3</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>4.0453344934030678E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G20">
         <v>100</v>
       </c>
-      <c r="H20" s="0" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <f aca="false">1*G20^(-1.21)</f>
-        <v>0.00380189396320561</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="0" t="n">
-        <f aca="false">H29/H30^2</f>
-        <v>0.18</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <f aca="false">16*(H31/H30)^2/(3*PI()^2 + 64*(H31/H30)^2)</f>
-        <v>0.249871555551855</v>
-      </c>
-      <c r="K27" s="0" t="n">
-        <f aca="false">L28/L29^2</f>
+      <c r="H20">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>3.8018939632056123E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f>H29/H30^2</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="H27">
+        <f>16*(H31/H30)^2/(3*PI()^2 + 64*(H31/H30)^2)</f>
+        <v>0.24987155555185514</v>
+      </c>
+      <c r="K27">
+        <f>L28/L29^2</f>
         <v>0.25083</v>
       </c>
-      <c r="L27" s="0" t="n">
-        <f aca="false">16*(L30/L29)^2/(3*PI()^2 + 64*(L30/L29)^2)</f>
-        <v>0.249871555551855</v>
-      </c>
-      <c r="O27" s="0" t="n">
-        <f aca="false">P29/P30^2</f>
-        <v>0.2645</v>
-      </c>
-      <c r="P27" s="0" t="n">
-        <f aca="false">16*(P31/P30)^2/(3*PI()^2 + 64*(P31/P30)^2)</f>
-        <v>0.249991254791629</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="0" t="s">
+      <c r="L27">
+        <f>16*(L30/L29)^2/(3*PI()^2 + 64*(L30/L29)^2)</f>
+        <v>0.24987155555185514</v>
+      </c>
+      <c r="O27">
+        <f>P29/P30^2</f>
+        <v>0.26450000000000001</v>
+      </c>
+      <c r="P27">
+        <f>16*(P31/P30)^2/(3*PI()^2 + 64*(P31/P30)^2)</f>
+        <v>0.24999125479162856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
         <v>1</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28">
         <v>30</v>
       </c>
-      <c r="K28" s="0" t="s">
+      <c r="K28" t="s">
         <v>3</v>
       </c>
-      <c r="L28" s="0" t="n">
-        <f aca="false">2.787*10^-4</f>
-        <v>0.0002787</v>
-      </c>
-      <c r="O28" s="0" t="s">
+      <c r="L28">
+        <f>2.787*10^-4</f>
+        <v>2.787E-4</v>
+      </c>
+      <c r="O28" t="s">
         <v>1</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="P28">
         <v>115</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="0" t="s">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="0" t="n">
-        <f aca="false">2*10^-4</f>
-        <v>0.0002</v>
-      </c>
-      <c r="K29" s="0" t="s">
+      <c r="H29">
+        <f>2*10^-4</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K29" t="s">
         <v>4</v>
       </c>
-      <c r="L29" s="0" t="n">
-        <f aca="false">1/30</f>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="O29" s="0" t="s">
+      <c r="L29">
+        <f>1/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O29" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="0" t="n">
-        <f aca="false">2*10^-5</f>
-        <v>2E-005</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G30" s="0" t="s">
+      <c r="P29">
+        <f>2*10^-5</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="0" t="n">
-        <f aca="false">1/H28</f>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="K30" s="0" t="s">
+      <c r="H30">
+        <f>1/H28</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K30" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>1</v>
       </c>
-      <c r="O30" s="0" t="s">
+      <c r="O30" t="s">
         <v>4</v>
       </c>
-      <c r="P30" s="0" t="n">
-        <f aca="false">1/P28</f>
-        <v>0.00869565217391304</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G31" s="0" t="s">
+      <c r="P30">
+        <f>1/P28</f>
+        <v>8.6956521739130436E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31">
         <v>1</v>
       </c>
-      <c r="O31" s="0" t="s">
+      <c r="O31" t="s">
         <v>5</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31">
         <v>1</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J34" s="0" t="n">
-        <f aca="false">K36/K37^2</f>
-        <v>0.18</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <f aca="false">8*(K38/K37)^2/(PI()^2 + 32*(K38/K37)^2)</f>
-        <v>0.249914355700524</v>
-      </c>
-      <c r="O34" s="0" t="n">
-        <f aca="false">P36/P37^2</f>
-        <v>0.24642</v>
-      </c>
-      <c r="P34" s="0" t="n">
-        <f aca="false">8*(P38/P37)^2/(PI()^2 + 32*(P38/P37)^2)</f>
-        <v>0.249993742037637</v>
-      </c>
-      <c r="R34" s="0" t="n">
-        <f aca="false">S36/S37^2</f>
+    <row r="34" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <f>K36/K37^2</f>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="K34">
+        <f>8*(K38/K37)^2/(PI()^2 + 32*(K38/K37)^2)</f>
+        <v>0.2499143557005237</v>
+      </c>
+      <c r="O34">
+        <f>P36/P37^2</f>
+        <v>0.24642000000000003</v>
+      </c>
+      <c r="P34">
+        <f>8*(P38/P37)^2/(PI()^2 + 32*(P38/P37)^2)</f>
+        <v>0.2499937420376373</v>
+      </c>
+      <c r="R34">
+        <f>S36/S37^2</f>
         <v>0.24999309</v>
       </c>
-      <c r="S34" s="0" t="n">
-        <f aca="false">8*(S38/S37)^2/(PI()^2 + 32*(S38/S37)^2)</f>
-        <v>0.249999937418825</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J35" s="0" t="s">
+      <c r="S34">
+        <f>8*(S38/S37)^2/(PI()^2 + 32*(S38/S37)^2)</f>
+        <v>0.24999993741882551</v>
+      </c>
+    </row>
+    <row r="35" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>30</v>
       </c>
-      <c r="O35" s="0" t="s">
+      <c r="O35" t="s">
         <v>1</v>
       </c>
-      <c r="P35" s="0" t="n">
+      <c r="P35">
         <v>111</v>
       </c>
-      <c r="R35" s="0" t="s">
+      <c r="R35" t="s">
         <v>1</v>
       </c>
-      <c r="S35" s="0" t="n">
+      <c r="S35">
         <v>111</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J36" s="0" t="s">
+    <row r="36" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
         <v>3</v>
       </c>
-      <c r="K36" s="0" t="n">
-        <f aca="false">2*10^-4</f>
-        <v>0.0002</v>
-      </c>
-      <c r="O36" s="0" t="s">
+      <c r="K36">
+        <f>2*10^-4</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O36" t="s">
         <v>3</v>
       </c>
-      <c r="P36" s="0" t="n">
-        <f aca="false">2*10^-5</f>
-        <v>2E-005</v>
-      </c>
-      <c r="R36" s="0" t="s">
+      <c r="P36">
+        <f>2*10^-5</f>
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="R36" t="s">
         <v>3</v>
       </c>
-      <c r="S36" s="0" t="n">
-        <f aca="false">2.029*10^-5</f>
-        <v>2.029E-005</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J37" s="0" t="s">
+      <c r="S36">
+        <f>2.029*10^-5</f>
+        <v>2.0290000000000001E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
         <v>4</v>
       </c>
-      <c r="K37" s="0" t="n">
-        <f aca="false">1/K35</f>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="O37" s="0" t="s">
+      <c r="K37">
+        <f>1/K35</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="O37" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="0" t="n">
-        <f aca="false">1/P35</f>
-        <v>0.00900900900900901</v>
-      </c>
-      <c r="R37" s="0" t="s">
+      <c r="P37">
+        <f>1/P35</f>
+        <v>9.0090090090090089E-3</v>
+      </c>
+      <c r="R37" t="s">
         <v>4</v>
       </c>
-      <c r="S37" s="0" t="n">
-        <f aca="false">1/S35</f>
-        <v>0.00900900900900901</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="J38" s="0" t="s">
+      <c r="S37">
+        <f>1/S35</f>
+        <v>9.0090090090090089E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
         <v>5</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38">
         <v>1</v>
       </c>
-      <c r="O38" s="0" t="s">
+      <c r="O38" t="s">
         <v>5</v>
       </c>
-      <c r="P38" s="0" t="n">
+      <c r="P38">
         <v>1</v>
       </c>
-      <c r="R38" s="0" t="s">
+      <c r="R38" t="s">
         <v>5</v>
       </c>
-      <c r="S38" s="0" t="n">
+      <c r="S38">
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="Q39" s="0" t="n">
-        <f aca="false">ABS(S36-P36)</f>
-        <v>2.89999999999999E-007</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O41" s="0" t="n">
-        <f aca="false">P43/P44^2</f>
-        <v>0.249912</v>
-      </c>
-      <c r="P41" s="0" t="n">
-        <f aca="false">8*(P45/P44)^2/(PI()^2 + 32*(P45/P44)^2)</f>
-        <v>0.249914355700524</v>
-      </c>
-      <c r="R41" s="0" t="n">
-        <f aca="false">S43/S44^2</f>
-        <v>0.2499993</v>
-      </c>
-      <c r="S41" s="0" t="n">
-        <f aca="false">8*(S45/S44)^2/(PI()^2 + 32*(S45/S44)^2)</f>
-        <v>0.249999143266443</v>
-      </c>
-      <c r="V41" s="0" t="n">
-        <f aca="false">W43/W44^2</f>
-        <v>0.2499993</v>
-      </c>
-      <c r="W41" s="0" t="n">
-        <f aca="false">8*(W45/W44)^2/(PI()^2 + 32*(W45/W44)^2)</f>
-        <v>0.24999978581606</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O42" s="0" t="s">
+    <row r="39" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <f>ABS(S36-P36)</f>
+        <v>2.8999999999999892E-7</v>
+      </c>
+    </row>
+    <row r="41" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <f>P43/P44^2</f>
+        <v>0.24991200000000002</v>
+      </c>
+      <c r="P41">
+        <f>8*(P45/P44)^2/(PI()^2 + 32*(P45/P44)^2)</f>
+        <v>0.2499143557005237</v>
+      </c>
+      <c r="R41">
+        <f>S43/S44^2</f>
+        <v>0.24999930000000001</v>
+      </c>
+      <c r="S41">
+        <f>8*(S45/S44)^2/(PI()^2 + 32*(S45/S44)^2)</f>
+        <v>0.24999914326644282</v>
+      </c>
+      <c r="V41">
+        <f>W43/W44^2</f>
+        <v>0.24999930000000001</v>
+      </c>
+      <c r="W41">
+        <f>8*(W45/W44)^2/(PI()^2 + 32*(W45/W44)^2)</f>
+        <v>0.24999978581606019</v>
+      </c>
+    </row>
+    <row r="42" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="O42" t="s">
         <v>1</v>
       </c>
-      <c r="P42" s="0" t="n">
+      <c r="P42">
         <v>30</v>
       </c>
-      <c r="R42" s="0" t="s">
+      <c r="R42" t="s">
         <v>1</v>
       </c>
-      <c r="S42" s="0" t="n">
+      <c r="S42">
         <v>30</v>
       </c>
-      <c r="V42" s="0" t="s">
+      <c r="V42" t="s">
         <v>1</v>
       </c>
-      <c r="W42" s="0" t="n">
+      <c r="W42">
         <v>30</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I43" s="0" t="s">
+    <row r="43" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
         <v>6</v>
       </c>
-      <c r="J43" s="0" t="s">
+      <c r="J43" t="s">
         <v>7</v>
       </c>
-      <c r="O43" s="0" t="s">
+      <c r="K43">
+        <f>16/(64+9*PI()*(J47*J48)^2)</f>
+        <v>0.2383023602456136</v>
+      </c>
+      <c r="O43" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="0" t="n">
-        <f aca="false">2.7768*10^-4</f>
-        <v>0.00027768</v>
-      </c>
-      <c r="R43" s="0" t="s">
+      <c r="P43">
+        <f>2.7768*10^-4</f>
+        <v>2.7768000000000004E-4</v>
+      </c>
+      <c r="R43" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="0" t="n">
-        <f aca="false">2.77777*10^-4</f>
-        <v>0.000277777</v>
-      </c>
-      <c r="V43" s="0" t="s">
+      <c r="S43">
+        <f>2.77777*10^-4</f>
+        <v>2.7777699999999999E-4</v>
+      </c>
+      <c r="V43" t="s">
         <v>3</v>
       </c>
-      <c r="W43" s="0" t="n">
-        <f aca="false">2.77777*10^-4</f>
-        <v>0.000277777</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I44" s="0" t="n">
-        <f aca="false">J46/J47^2</f>
-        <v>0.2493</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <f aca="false">16/(64+9*PI()*(J47*J48)^2)</f>
-        <v>0.238302360245614</v>
-      </c>
-      <c r="O44" s="0" t="s">
+      <c r="W43">
+        <f>2.77777*10^-4</f>
+        <v>2.7777699999999999E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <f>J46/J47^2</f>
+        <v>0.25155</v>
+      </c>
+      <c r="J44" t="e">
+        <f>Sheet2!A2:B20+Tabelle1!H54</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O44" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="0" t="n">
-        <f aca="false">1/P42</f>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="R44" s="0" t="s">
+      <c r="P44">
+        <f>1/P42</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="R44" t="s">
         <v>4</v>
       </c>
-      <c r="S44" s="0" t="n">
-        <f aca="false">1/S42</f>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="V44" s="0" t="s">
+      <c r="S44">
+        <f>1/S42</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="V44" t="s">
         <v>4</v>
       </c>
-      <c r="W44" s="0" t="n">
-        <f aca="false">1/W42</f>
-        <v>0.0333333333333333</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I45" s="0" t="s">
+      <c r="W44">
+        <f>1/W42</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
         <v>1</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45">
         <v>30</v>
       </c>
-      <c r="O45" s="0" t="s">
+      <c r="O45" t="s">
         <v>5</v>
       </c>
-      <c r="P45" s="0" t="n">
+      <c r="P45">
         <v>1</v>
       </c>
-      <c r="R45" s="0" t="s">
+      <c r="R45" t="s">
         <v>5</v>
       </c>
-      <c r="S45" s="0" t="n">
+      <c r="S45">
         <v>10</v>
       </c>
-      <c r="V45" s="0" t="s">
+      <c r="V45" t="s">
         <v>5</v>
       </c>
-      <c r="W45" s="0" t="n">
+      <c r="W45">
         <v>20</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I46" s="0" t="s">
+    <row r="46" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
         <v>3</v>
       </c>
-      <c r="J46" s="0" t="n">
-        <f aca="false">2.77*10^-4</f>
-        <v>0.000277</v>
-      </c>
-      <c r="Q46" s="0" t="n">
-        <f aca="false">ABS(S43-P43)</f>
-        <v>9.70000000000094E-008</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I47" s="0" t="s">
+      <c r="J46">
+        <f>2.795*10^-4</f>
+        <v>2.7950000000000002E-4</v>
+      </c>
+      <c r="Q46">
+        <f>ABS(S43-P43)</f>
+        <v>9.6999999999955195E-8</v>
+      </c>
+    </row>
+    <row r="47" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="0" t="n">
-        <f aca="false">1/J45</f>
-        <v>0.0333333333333333</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I48" s="0" t="s">
+      <c r="J47">
+        <f>1/J45</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="9:23" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48">
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R50" s="0" t="n">
-        <f aca="false">S52/S53^2</f>
-        <v>0.2499993</v>
-      </c>
-      <c r="S50" s="0" t="n">
-        <f aca="false">16/(64+9*PI()*(S53*S54)^2)</f>
-        <v>0.238302360245614</v>
-      </c>
-      <c r="V50" s="0" t="n">
-        <f aca="false">W52/W53^2</f>
-        <v>0.2499993</v>
-      </c>
-      <c r="W50" s="0" t="n">
-        <f aca="false">16/(64+9*PI()*(W53*W54)^2)</f>
-        <v>0.249877341746698</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R51" s="0" t="s">
+    <row r="50" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <f>S52/S53^2</f>
+        <v>0.24999930000000001</v>
+      </c>
+      <c r="S50">
+        <f>4/(16-(3/2*S54*PI()*S53)^2)</f>
+        <v>0.29558254328224409</v>
+      </c>
+      <c r="V50">
+        <f>W52/W53^2</f>
+        <v>0.24999930000000001</v>
+      </c>
+      <c r="W50">
+        <f>16/(64+9*PI()*(W53*W54)^2)</f>
+        <v>0.24987734174669843</v>
+      </c>
+    </row>
+    <row r="51" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="R51" t="s">
         <v>1</v>
       </c>
-      <c r="S51" s="0" t="n">
+      <c r="S51">
         <v>30</v>
       </c>
-      <c r="V51" s="0" t="s">
+      <c r="V51" t="s">
         <v>1</v>
       </c>
-      <c r="W51" s="0" t="n">
+      <c r="W51">
         <v>30</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R52" s="0" t="s">
+    <row r="52" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="0" t="n">
-        <f aca="false">2.77777*10^-4</f>
-        <v>0.000277777</v>
-      </c>
-      <c r="V52" s="0" t="s">
+      <c r="S52">
+        <f>2.77777*10^-4</f>
+        <v>2.7777699999999999E-4</v>
+      </c>
+      <c r="V52" t="s">
         <v>3</v>
       </c>
-      <c r="W52" s="0" t="n">
-        <f aca="false">2.77777*10^-4</f>
-        <v>0.000277777</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R53" s="0" t="s">
+      <c r="W52">
+        <f>2.77777*10^-4</f>
+        <v>2.7777699999999999E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="R53" t="s">
         <v>4</v>
       </c>
-      <c r="S53" s="0" t="n">
-        <f aca="false">1/S51</f>
-        <v>0.0333333333333333</v>
-      </c>
-      <c r="V53" s="0" t="s">
+      <c r="S53">
+        <f>1/S51</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="V53" t="s">
         <v>4</v>
       </c>
-      <c r="W53" s="0" t="n">
-        <f aca="false">1/W51</f>
-        <v>0.0333333333333333</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="R54" s="0" t="s">
+      <c r="W53">
+        <f>1/W51</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="18:23" x14ac:dyDescent="0.25">
+      <c r="R54" t="s">
         <v>5</v>
       </c>
-      <c r="S54" s="0" t="n">
+      <c r="S54">
         <v>10</v>
       </c>
-      <c r="V54" s="0" t="s">
+      <c r="V54" t="s">
         <v>5</v>
       </c>
-      <c r="W54" s="0" t="n">
+      <c r="W54">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:B25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col min="1" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
+        <v>1449</v>
+      </c>
+      <c r="C3">
         <v>411</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1.05</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
+        <v>1314</v>
+      </c>
+      <c r="C4">
         <v>382</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B5">
+        <v>1191</v>
+      </c>
+      <c r="C5">
         <v>355</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B6">
+        <v>1079</v>
+      </c>
+      <c r="C6">
         <v>329</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1.2</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
+        <v>976</v>
+      </c>
+      <c r="C7">
         <v>305</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>1.25</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
+        <v>881</v>
+      </c>
+      <c r="C8">
         <v>282</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1.3</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
+        <v>794</v>
+      </c>
+      <c r="C9">
         <v>260</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>1.35</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
+        <v>713</v>
+      </c>
+      <c r="C10">
         <v>239</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>1.4</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
+        <v>638</v>
+      </c>
+      <c r="C11">
         <v>219</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>1.405</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
+        <v>630</v>
+      </c>
+      <c r="C12">
         <v>217</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>1.41</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
+        <v>623</v>
+      </c>
+      <c r="C13">
         <v>215</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>1.415</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
+        <v>616</v>
+      </c>
+      <c r="C14">
         <v>216</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>1.4175</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
+        <v>613</v>
+      </c>
+      <c r="C15">
         <v>225</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>1.42</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
+        <v>613</v>
+      </c>
+      <c r="C16">
         <v>246</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>1.425</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
+        <v>777</v>
+      </c>
+      <c r="C17">
         <v>321</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>1.43</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
+        <v>1142</v>
+      </c>
+      <c r="C18">
         <v>475</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
-        <v>1.435</v>
-      </c>
-      <c r="B19" s="0" t="n">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="B19">
+        <v>2177</v>
+      </c>
+      <c r="C19">
         <v>909</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1.44</v>
+      </c>
+      <c r="B20">
+        <v>25892</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>